--- a/biology/Botanique/Phorbe/Phorbe.xlsx
+++ b/biology/Botanique/Phorbe/Phorbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une phorbe (du grec, φορβή (phorbḗ), « pâture ») est une plante herbacée à feuilles larges à bords non parallèles. La plupart d'entre elles appartient au groupe des dicotylédones. Il peut s'agir de plantes annuelles, bisannuelles ou vivaces, mais toujours dépourvues de tissus ligneux[1]. Ce terme s'oppose à graminoïde[2], qui désigne des plantes herbacées à feuilles étroites et linéaires, comme les graminées, carex et joncs. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une phorbe (du grec, φορβή (phorbḗ), « pâture ») est une plante herbacée à feuilles larges à bords non parallèles. La plupart d'entre elles appartient au groupe des dicotylédones. Il peut s'agir de plantes annuelles, bisannuelles ou vivaces, mais toujours dépourvues de tissus ligneux. Ce terme s'oppose à graminoïde, qui désigne des plantes herbacées à feuilles étroites et linéaires, comme les graminées, carex et joncs. 
 Exemples de phorbes : trèfle, tournesol, hémérocalle, asclépiade.
-Une formation végétale à dominante de phorbes est une phorbaie[3]. Les phorbes de grande taille sont les constituants de la mégaphorbiaie, formation végétale des sols frais et humides.
+Une formation végétale à dominante de phorbes est une phorbaie. Les phorbes de grande taille sont les constituants de la mégaphorbiaie, formation végétale des sols frais et humides.
 </t>
         </is>
       </c>
